--- a/Plugin_apartmentography/bin/Debug/Resources/Детальная квартирография.xlsx
+++ b/Plugin_apartmentography/bin/Debug/Resources/Детальная квартирография.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.sinyagina\AppData\Roaming\Autodesk\Revit\Addins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.sinyagina\source\repos\Plugin_apartmentigraphy\Plugin_apartmentography\bin\Debug\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10014D99-0ED5-4D54-B621-360DDFCB589F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C3F09C-66D0-4FEF-B88B-49770E5A7E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1119,101 +1119,334 @@
     <xf numFmtId="9" fontId="4" fillId="11" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="8" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="18" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="19" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="19" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="14" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="19" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="19" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="19" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="18" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="18" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="18" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="14" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="15" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="15" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="16" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="16" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="16" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="17" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="17" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="17" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="19" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="19" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="19" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="14" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="15" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="15" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="16" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="16" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="16" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="17" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="17" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="17" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1248,129 +1481,6 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="13" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="13" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="8" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="18" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="19" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1380,116 +1490,6 @@
     <xf numFmtId="2" fontId="3" fillId="19" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="19" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="19" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="19" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="19" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="19" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="14" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="19" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="19" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="19" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="18" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="18" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="18" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1782,7 +1782,7 @@
   <dimension ref="A1:AE56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A22" sqref="A22:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,24 +1796,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="82" t="s">
+      <c r="A1" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="176" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1821,81 +1821,81 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83">
+      <c r="B2" s="126">
         <v>1</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85">
+      <c r="C2" s="127"/>
+      <c r="D2" s="128">
         <v>2</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88">
+      <c r="E2" s="129"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="131">
         <v>3</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="91">
+      <c r="H2" s="132"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="134">
         <v>4</v>
       </c>
-      <c r="K2" s="92"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="179">
+      <c r="K2" s="135"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="137">
         <v>5</v>
       </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="82"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="176"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="82"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="176"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="141"/>
+      <c r="D4" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88" t="s">
+      <c r="E4" s="129"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="91" t="s">
+      <c r="H4" s="132"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="179">
-        <v>0</v>
-      </c>
-      <c r="N4" s="180"/>
-      <c r="O4" s="181"/>
-      <c r="P4" s="82"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="137">
+        <v>0</v>
+      </c>
+      <c r="N4" s="138"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="176"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1943,7 +1943,7 @@
       <c r="O5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="82"/>
+      <c r="P5" s="176"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1963,7 +1963,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="82"/>
+      <c r="P6" s="176"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -1983,7 +1983,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="82"/>
+      <c r="P7" s="176"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="38"/>
       <c r="S7" s="38"/>
@@ -2048,7 +2048,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="82"/>
+      <c r="P8" s="176"/>
       <c r="Q8" s="39"/>
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
@@ -2069,36 +2069,36 @@
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="105">
+      <c r="B9" s="142">
         <f>SUM(B8:B8)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="105">
+      <c r="C9" s="143"/>
+      <c r="D9" s="142">
         <f>SUM(D8:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="107"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="105">
+      <c r="E9" s="144"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="142">
         <f>SUM(G8:H8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="107"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="105">
+      <c r="H9" s="144"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="142">
         <f>SUM(J8:K8)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="105">
+      <c r="K9" s="144"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="142">
         <f>SUM(M8:O8)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="107"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="82"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="143"/>
+      <c r="P9" s="176"/>
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
       <c r="S9" s="40"/>
@@ -2119,24 +2119,24 @@
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="105">
+      <c r="B10" s="142">
         <f>B9+D9+G9+J9+M9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="82"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="176"/>
       <c r="Q10" s="40"/>
       <c r="R10" s="41"/>
       <c r="S10" s="74"/>
@@ -2191,7 +2191,7 @@
       <c r="O11" s="18" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P11" s="82"/>
+      <c r="P11" s="176"/>
       <c r="Q11" s="42"/>
       <c r="R11" s="43"/>
       <c r="S11" s="43"/>
@@ -2246,7 +2246,7 @@
       <c r="O12" s="22" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="82"/>
+      <c r="P12" s="176"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
       <c r="S12" s="45"/>
@@ -2267,31 +2267,31 @@
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="94">
+      <c r="B13" s="145">
         <v>0.11767702496179318</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96">
+      <c r="C13" s="146"/>
+      <c r="D13" s="147">
         <v>0.35455934793683136</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="99">
+      <c r="E13" s="148"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="150">
         <v>0.39174732552215996</v>
       </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102">
+      <c r="H13" s="151"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="153">
         <v>0.13601630157921549</v>
       </c>
-      <c r="K13" s="103"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="176">
-        <v>0</v>
-      </c>
-      <c r="N13" s="177"/>
-      <c r="O13" s="178"/>
-      <c r="P13" s="82"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="156">
+        <v>0</v>
+      </c>
+      <c r="N13" s="157"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="176"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="46"/>
       <c r="S13" s="46"/>
@@ -2327,87 +2327,87 @@
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
-      <c r="B17" s="185" t="s">
+      <c r="B17" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="186"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="186"/>
-      <c r="L17" s="186"/>
-      <c r="M17" s="186"/>
-      <c r="N17" s="186"/>
-      <c r="O17" s="186"/>
-      <c r="P17" s="186"/>
-      <c r="Q17" s="186"/>
-      <c r="R17" s="187"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="103"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="188" t="s">
+      <c r="A18" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="189"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
-      <c r="J18" s="189"/>
-      <c r="K18" s="189"/>
-      <c r="L18" s="189"/>
-      <c r="M18" s="189"/>
-      <c r="N18" s="189"/>
-      <c r="O18" s="189"/>
-      <c r="P18" s="189"/>
-      <c r="Q18" s="189"/>
-      <c r="R18" s="190"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="106"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="130">
+      <c r="B19" s="159">
         <v>1</v>
       </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="132">
+      <c r="C19" s="160"/>
+      <c r="D19" s="161">
         <v>2</v>
       </c>
-      <c r="E19" s="133"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="135">
+      <c r="E19" s="162"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="164">
         <v>3</v>
       </c>
-      <c r="H19" s="136"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138">
+      <c r="H19" s="165"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="167">
         <v>4</v>
       </c>
-      <c r="K19" s="139"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="171">
+      <c r="K19" s="168"/>
+      <c r="L19" s="169"/>
+      <c r="M19" s="170">
         <v>5</v>
       </c>
-      <c r="N19" s="172"/>
-      <c r="O19" s="173"/>
-      <c r="P19" s="182">
+      <c r="N19" s="171"/>
+      <c r="O19" s="172"/>
+      <c r="P19" s="173">
         <v>6</v>
       </c>
-      <c r="Q19" s="183"/>
-      <c r="R19" s="184"/>
+      <c r="Q19" s="174"/>
+      <c r="R19" s="175"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="88" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="65" t="s">
@@ -2440,13 +2440,13 @@
       <c r="L20" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="174" t="s">
+      <c r="M20" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="174" t="s">
+      <c r="N20" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="175" t="s">
+      <c r="O20" s="100" t="s">
         <v>18</v>
       </c>
       <c r="P20" s="69" t="s">
@@ -2460,95 +2460,95 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="126"/>
-      <c r="B21" s="202"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="205"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="205"/>
-      <c r="L21" s="205"/>
-      <c r="M21" s="205"/>
-      <c r="N21" s="205"/>
-      <c r="O21" s="205"/>
-      <c r="P21" s="206"/>
-      <c r="Q21" s="206"/>
-      <c r="R21" s="206"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="127" t="s">
+      <c r="A22" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="199">
-        <f ca="1">SUM(B22:B31)</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="200">
-        <f ca="1">SUM(C22:C31)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="200">
-        <f ca="1">SUM(D22:D31)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="200">
-        <f ca="1">SUM(E22:E31)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="200">
-        <f ca="1">SUM(F22:F31)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="200">
-        <f ca="1">SUM(G22:G31)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="200">
-        <f ca="1">SUM(H22:H31)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="200">
-        <f ca="1">SUM(I22:I31)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="200">
-        <f ca="1">SUM(J22:J31)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="200">
-        <f ca="1">SUM(K22:K31)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="200">
-        <f ca="1">SUM(L22:L31)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="200">
-        <f ca="1">SUM(M22:M31)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="200">
-        <f ca="1">SUM(N22:N31)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="201">
-        <f ca="1">SUM(O22:O31)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="200">
-        <f ca="1">SUM(P22:P31)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="200">
-        <f ca="1">SUM(Q22:Q31)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="201">
-        <f ca="1">SUM(R22:R31)</f>
+      <c r="B22" s="115">
+        <f t="shared" ref="B22:R22" ca="1" si="1">SUM(B22:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="117">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="117">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       <c r="A23" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="191">
+      <c r="B23" s="107">
         <f ca="1">SUM(B22:C22)</f>
         <v>0</v>
       </c>
@@ -2621,7 +2621,7 @@
       <c r="A25" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="142">
+      <c r="B25" s="89">
         <f ca="1">B22/(B22+C22)</f>
         <v>0</v>
       </c>
@@ -2691,83 +2691,83 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="143">
-        <f ca="1">B22/$B$24</f>
+      <c r="B26" s="90">
+        <f t="shared" ref="B26:R26" ca="1" si="2">B22/$B$24</f>
         <v>0</v>
       </c>
       <c r="C26" s="20">
-        <f ca="1">C22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D26" s="15">
-        <f ca="1">D22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E26" s="15">
-        <f ca="1">E22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="F26" s="15">
-        <f ca="1">F22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="16" t="e">
-        <f ca="1">G22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="16" t="e">
-        <f ca="1">H22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="16" t="e">
-        <f ca="1">I22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="17" t="e">
-        <f ca="1">J22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="17" t="e">
-        <f ca="1">K22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="17" t="e">
-        <f ca="1">L22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="22" t="e">
-        <f ca="1">M22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="22" t="e">
-        <f ca="1">N22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="49" t="e">
-        <f ca="1">O22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="22" t="e">
-        <f ca="1">P22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="22" t="e">
-        <f ca="1">Q22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="49" t="e">
-        <f ca="1">R22/$B$24</f>
+        <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="129" t="s">
+      <c r="A27" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="192" t="e">
+      <c r="B27" s="108" t="e">
         <f ca="1">B23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2799,21 +2799,21 @@
         <f ca="1">L23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="193" t="e">
+      <c r="M27" s="109" t="e">
         <f ca="1">M23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="194"/>
-      <c r="O27" s="195" t="e">
+      <c r="N27" s="110"/>
+      <c r="O27" s="111" t="e">
         <f ca="1">O23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P27" s="196" t="e">
+      <c r="P27" s="112" t="e">
         <f ca="1">P23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="197"/>
-      <c r="R27" s="198" t="e">
+      <c r="Q27" s="113"/>
+      <c r="R27" s="114" t="e">
         <f ca="1">R23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
@@ -3211,36 +3211,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P1:P13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P1:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3263,168 +3263,168 @@
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="60"/>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="157"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="191"/>
     </row>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="160"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="188"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="114">
+      <c r="C4" s="193">
         <v>1</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="116">
+      <c r="D4" s="194"/>
+      <c r="E4" s="195">
         <v>2</v>
       </c>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119">
+      <c r="F4" s="196"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="198">
         <v>3</v>
       </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="122">
+      <c r="I4" s="199"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="201">
         <v>4</v>
       </c>
-      <c r="L4" s="123"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="166">
+      <c r="L4" s="202"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="204">
         <v>5</v>
       </c>
-      <c r="O4" s="167"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="161">
+      <c r="O4" s="205"/>
+      <c r="P4" s="206"/>
+      <c r="Q4" s="177">
         <v>6</v>
       </c>
-      <c r="R4" s="162"/>
-      <c r="S4" s="163"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="179"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="164"/>
-      <c r="S5" s="165"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="96"/>
     </row>
     <row r="6" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="152">
+      <c r="C6" s="180">
         <f>SUM(C7:P7)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="154"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="181"/>
+      <c r="P6" s="181"/>
+      <c r="Q6" s="181"/>
+      <c r="R6" s="181"/>
+      <c r="S6" s="182"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="148">
+      <c r="C7" s="183">
         <f>SUM(C8:C8)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="148">
+      <c r="D7" s="192"/>
+      <c r="E7" s="183">
         <f>SUM(E8:F8)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="150"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="148">
+      <c r="F7" s="184"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="183">
         <f>SUM(H8:I8)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="150"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="148">
+      <c r="I7" s="184"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="183">
         <f>SUM(K8:L8)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="150"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="148">
+      <c r="L7" s="184"/>
+      <c r="M7" s="192"/>
+      <c r="N7" s="183">
         <f>SUM(N8:P8)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="150"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="148">
+      <c r="O7" s="184"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="183">
         <f>SUM(Q8:S8)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="150"/>
-      <c r="S7" s="151"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="185"/>
     </row>
     <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="62" t="s">

--- a/Plugin_apartmentography/bin/Debug/Resources/Детальная квартирография.xlsx
+++ b/Plugin_apartmentography/bin/Debug/Resources/Детальная квартирография.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.sinyagina\source\repos\Plugin_apartmentigraphy\Plugin_apartmentography\bin\Debug\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.sinyagina\AppData\Roaming\Autodesk\Revit\Addins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C3F09C-66D0-4FEF-B88B-49770E5A7E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10014D99-0ED5-4D54-B621-360DDFCB589F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1119,9 +1119,135 @@
     <xf numFmtId="9" fontId="4" fillId="11" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="14" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="15" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="15" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="16" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="16" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="16" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="17" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="17" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="17" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1137,6 +1263,39 @@
     <xf numFmtId="2" fontId="3" fillId="13" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1158,22 +1317,115 @@
     <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="18" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="19" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="19" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="19" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="19" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="19" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1238,258 +1490,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="14" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="15" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="15" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="16" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="16" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="16" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="17" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="17" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="17" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="19" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="19" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="19" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1782,7 +1782,7 @@
   <dimension ref="A1:AE56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:R27"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,24 +1796,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="176" t="s">
+      <c r="A1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="82" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1821,81 +1821,81 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="126">
+      <c r="B2" s="83">
         <v>1</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128">
+      <c r="C2" s="84"/>
+      <c r="D2" s="85">
         <v>2</v>
       </c>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="131">
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88">
         <v>3</v>
       </c>
-      <c r="H2" s="132"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="134">
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="91">
         <v>4</v>
       </c>
-      <c r="K2" s="135"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="137">
+      <c r="K2" s="92"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="179">
         <v>5</v>
       </c>
-      <c r="N2" s="138"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="176"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="82"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="176"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="82"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="128" t="s">
+      <c r="C4" s="112"/>
+      <c r="D4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="131" t="s">
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="132"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="134" t="s">
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="135"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="137">
-        <v>0</v>
-      </c>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="176"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="179">
+        <v>0</v>
+      </c>
+      <c r="N4" s="180"/>
+      <c r="O4" s="181"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1943,7 +1943,7 @@
       <c r="O5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="176"/>
+      <c r="P5" s="82"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1963,7 +1963,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="176"/>
+      <c r="P6" s="82"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -1983,7 +1983,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="176"/>
+      <c r="P7" s="82"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="38"/>
       <c r="S7" s="38"/>
@@ -2048,7 +2048,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="176"/>
+      <c r="P8" s="82"/>
       <c r="Q8" s="39"/>
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
@@ -2069,36 +2069,36 @@
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="142">
+      <c r="B9" s="105">
         <f>SUM(B8:B8)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="142">
+      <c r="C9" s="106"/>
+      <c r="D9" s="105">
         <f>SUM(D8:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="144"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="142">
+      <c r="E9" s="107"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="105">
         <f>SUM(G8:H8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="142">
+      <c r="H9" s="107"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="105">
         <f>SUM(J8:K8)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="144"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="142">
+      <c r="K9" s="107"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="105">
         <f>SUM(M8:O8)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="144"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="176"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="82"/>
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
       <c r="S9" s="40"/>
@@ -2119,24 +2119,24 @@
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="142">
+      <c r="B10" s="105">
         <f>B9+D9+G9+J9+M9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="176"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="82"/>
       <c r="Q10" s="40"/>
       <c r="R10" s="41"/>
       <c r="S10" s="74"/>
@@ -2191,7 +2191,7 @@
       <c r="O11" s="18" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P11" s="176"/>
+      <c r="P11" s="82"/>
       <c r="Q11" s="42"/>
       <c r="R11" s="43"/>
       <c r="S11" s="43"/>
@@ -2246,7 +2246,7 @@
       <c r="O12" s="22" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="176"/>
+      <c r="P12" s="82"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
       <c r="S12" s="45"/>
@@ -2267,31 +2267,31 @@
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="145">
+      <c r="B13" s="94">
         <v>0.11767702496179318</v>
       </c>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147">
+      <c r="C13" s="95"/>
+      <c r="D13" s="96">
         <v>0.35455934793683136</v>
       </c>
-      <c r="E13" s="148"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="150">
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="99">
         <v>0.39174732552215996</v>
       </c>
-      <c r="H13" s="151"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="153">
+      <c r="H13" s="100"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="102">
         <v>0.13601630157921549</v>
       </c>
-      <c r="K13" s="154"/>
-      <c r="L13" s="155"/>
-      <c r="M13" s="156">
-        <v>0</v>
-      </c>
-      <c r="N13" s="157"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="176"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="176">
+        <v>0</v>
+      </c>
+      <c r="N13" s="177"/>
+      <c r="O13" s="178"/>
+      <c r="P13" s="82"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="46"/>
       <c r="S13" s="46"/>
@@ -2327,87 +2327,87 @@
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="103"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="186"/>
+      <c r="L17" s="186"/>
+      <c r="M17" s="186"/>
+      <c r="N17" s="186"/>
+      <c r="O17" s="186"/>
+      <c r="P17" s="186"/>
+      <c r="Q17" s="186"/>
+      <c r="R17" s="187"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="106"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="189"/>
+      <c r="M18" s="189"/>
+      <c r="N18" s="189"/>
+      <c r="O18" s="189"/>
+      <c r="P18" s="189"/>
+      <c r="Q18" s="189"/>
+      <c r="R18" s="190"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="159">
+      <c r="B19" s="130">
         <v>1</v>
       </c>
-      <c r="C19" s="160"/>
-      <c r="D19" s="161">
+      <c r="C19" s="131"/>
+      <c r="D19" s="132">
         <v>2</v>
       </c>
-      <c r="E19" s="162"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="164">
+      <c r="E19" s="133"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="135">
         <v>3</v>
       </c>
-      <c r="H19" s="165"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="167">
+      <c r="H19" s="136"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138">
         <v>4</v>
       </c>
-      <c r="K19" s="168"/>
-      <c r="L19" s="169"/>
-      <c r="M19" s="170">
+      <c r="K19" s="139"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="171">
         <v>5</v>
       </c>
-      <c r="N19" s="171"/>
-      <c r="O19" s="172"/>
-      <c r="P19" s="173">
+      <c r="N19" s="172"/>
+      <c r="O19" s="173"/>
+      <c r="P19" s="182">
         <v>6</v>
       </c>
-      <c r="Q19" s="174"/>
-      <c r="R19" s="175"/>
+      <c r="Q19" s="183"/>
+      <c r="R19" s="184"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="141" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="65" t="s">
@@ -2440,13 +2440,13 @@
       <c r="L20" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="99" t="s">
+      <c r="M20" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="99" t="s">
+      <c r="N20" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="100" t="s">
+      <c r="O20" s="175" t="s">
         <v>18</v>
       </c>
       <c r="P20" s="69" t="s">
@@ -2460,95 +2460,95 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="202"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="205"/>
+      <c r="J21" s="205"/>
+      <c r="K21" s="205"/>
+      <c r="L21" s="205"/>
+      <c r="M21" s="205"/>
+      <c r="N21" s="205"/>
+      <c r="O21" s="205"/>
+      <c r="P21" s="206"/>
+      <c r="Q21" s="206"/>
+      <c r="R21" s="206"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="115">
-        <f t="shared" ref="B22:R22" ca="1" si="1">SUM(B22:B31)</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="117">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="117">
-        <f t="shared" ca="1" si="1"/>
+      <c r="B22" s="199">
+        <f ca="1">SUM(B22:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="200">
+        <f ca="1">SUM(C22:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="200">
+        <f ca="1">SUM(D22:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="200">
+        <f ca="1">SUM(E22:E31)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="200">
+        <f ca="1">SUM(F22:F31)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="200">
+        <f ca="1">SUM(G22:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="200">
+        <f ca="1">SUM(H22:H31)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="200">
+        <f ca="1">SUM(I22:I31)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="200">
+        <f ca="1">SUM(J22:J31)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="200">
+        <f ca="1">SUM(K22:K31)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="200">
+        <f ca="1">SUM(L22:L31)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="200">
+        <f ca="1">SUM(M22:M31)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="200">
+        <f ca="1">SUM(N22:N31)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="201">
+        <f ca="1">SUM(O22:O31)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="200">
+        <f ca="1">SUM(P22:P31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="200">
+        <f ca="1">SUM(Q22:Q31)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="201">
+        <f ca="1">SUM(R22:R31)</f>
         <v>0</v>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       <c r="A23" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="107">
+      <c r="B23" s="191">
         <f ca="1">SUM(B22:C22)</f>
         <v>0</v>
       </c>
@@ -2621,7 +2621,7 @@
       <c r="A25" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="89">
+      <c r="B25" s="142">
         <f ca="1">B22/(B22+C22)</f>
         <v>0</v>
       </c>
@@ -2691,83 +2691,83 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="90">
-        <f t="shared" ref="B26:R26" ca="1" si="2">B22/$B$24</f>
+      <c r="B26" s="143">
+        <f ca="1">B22/$B$24</f>
         <v>0</v>
       </c>
       <c r="C26" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">C22/$B$24</f>
         <v>0</v>
       </c>
       <c r="D26" s="15">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">D22/$B$24</f>
         <v>0</v>
       </c>
       <c r="E26" s="15">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">E22/$B$24</f>
         <v>0</v>
       </c>
       <c r="F26" s="15">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">F22/$B$24</f>
         <v>0</v>
       </c>
       <c r="G26" s="16" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">G22/$B$24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="16" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">H22/$B$24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="16" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">I22/$B$24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="17" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">J22/$B$24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="17" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">K22/$B$24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="17" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">L22/$B$24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="22" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">M22/$B$24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="22" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">N22/$B$24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="49" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">O22/$B$24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="22" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">P22/$B$24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="22" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">Q22/$B$24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="49" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">R22/$B$24</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="108" t="e">
+      <c r="B27" s="192" t="e">
         <f ca="1">B23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
@@ -2799,21 +2799,21 @@
         <f ca="1">L23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="109" t="e">
+      <c r="M27" s="193" t="e">
         <f ca="1">M23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="110"/>
-      <c r="O27" s="111" t="e">
+      <c r="N27" s="194"/>
+      <c r="O27" s="195" t="e">
         <f ca="1">O23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P27" s="112" t="e">
+      <c r="P27" s="196" t="e">
         <f ca="1">P23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="113"/>
-      <c r="R27" s="114" t="e">
+      <c r="Q27" s="197"/>
+      <c r="R27" s="198" t="e">
         <f ca="1">R23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
@@ -3211,36 +3211,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P1:P13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
     <mergeCell ref="B10:O10"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="M13:O13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P1:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3263,168 +3263,168 @@
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="60"/>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="191"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="157"/>
     </row>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="188"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="160"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="193">
+      <c r="C4" s="114">
         <v>1</v>
       </c>
-      <c r="D4" s="194"/>
-      <c r="E4" s="195">
+      <c r="D4" s="115"/>
+      <c r="E4" s="116">
         <v>2</v>
       </c>
-      <c r="F4" s="196"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="198">
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119">
         <v>3</v>
       </c>
-      <c r="I4" s="199"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="201">
+      <c r="I4" s="120"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="122">
         <v>4</v>
       </c>
-      <c r="L4" s="202"/>
-      <c r="M4" s="203"/>
-      <c r="N4" s="204">
+      <c r="L4" s="123"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="166">
         <v>5</v>
       </c>
-      <c r="O4" s="205"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="177">
+      <c r="O4" s="167"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="161">
         <v>6</v>
       </c>
-      <c r="R4" s="178"/>
-      <c r="S4" s="179"/>
+      <c r="R4" s="162"/>
+      <c r="S4" s="163"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="96"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="170"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="165"/>
     </row>
     <row r="6" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="180">
+      <c r="C6" s="152">
         <f>SUM(C7:P7)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="181"/>
-      <c r="O6" s="181"/>
-      <c r="P6" s="181"/>
-      <c r="Q6" s="181"/>
-      <c r="R6" s="181"/>
-      <c r="S6" s="182"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="153"/>
+      <c r="N6" s="153"/>
+      <c r="O6" s="153"/>
+      <c r="P6" s="153"/>
+      <c r="Q6" s="153"/>
+      <c r="R6" s="153"/>
+      <c r="S6" s="154"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="183">
+      <c r="C7" s="148">
         <f>SUM(C8:C8)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="183">
+      <c r="D7" s="149"/>
+      <c r="E7" s="148">
         <f>SUM(E8:F8)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="184"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="183">
+      <c r="F7" s="150"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="148">
         <f>SUM(H8:I8)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="184"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="183">
+      <c r="I7" s="150"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="148">
         <f>SUM(K8:L8)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="184"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="183">
+      <c r="L7" s="150"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="148">
         <f>SUM(N8:P8)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="184"/>
-      <c r="P7" s="185"/>
-      <c r="Q7" s="183">
+      <c r="O7" s="150"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="148">
         <f>SUM(Q8:S8)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="184"/>
-      <c r="S7" s="185"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="151"/>
     </row>
     <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="62" t="s">

--- a/Plugin_apartmentography/bin/Debug/Resources/Детальная квартирография.xlsx
+++ b/Plugin_apartmentography/bin/Debug/Resources/Детальная квартирография.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.sinyagina\AppData\Roaming\Autodesk\Revit\Addins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.sinyagina\source\repos\Plugin_apartmentigraphy\Plugin_apartmentography\bin\Debug\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33B86A7-CD19-4109-8F3C-241ABEB9C29D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F7118-455C-4B87-8604-AFED629E1A61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Выгрузка на корпус" sheetId="1" r:id="rId1"/>
@@ -1201,6 +1201,72 @@
     <xf numFmtId="2" fontId="3" fillId="19" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="18" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1255,15 +1321,6 @@
     <xf numFmtId="2" fontId="3" fillId="19" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1304,63 +1361,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="19" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,24 +1669,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="140" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="162" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1694,81 +1694,81 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="189">
+      <c r="B2" s="140">
         <v>1</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="177">
+      <c r="C2" s="141"/>
+      <c r="D2" s="142">
         <v>2</v>
       </c>
-      <c r="E2" s="178"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="180">
+      <c r="E2" s="143"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145">
         <v>3</v>
       </c>
-      <c r="H2" s="181"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="183">
+      <c r="H2" s="146"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="148">
         <v>4</v>
       </c>
-      <c r="K2" s="184"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="186">
+      <c r="K2" s="149"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="151">
         <v>5</v>
       </c>
-      <c r="N2" s="187"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="140"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="162"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="140"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="162"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="176"/>
-      <c r="D4" s="177" t="s">
+      <c r="C4" s="158"/>
+      <c r="D4" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="178"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="180" t="s">
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="181"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="183" t="s">
+      <c r="H4" s="146"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="184"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="186">
-        <v>0</v>
-      </c>
-      <c r="N4" s="187"/>
-      <c r="O4" s="188"/>
-      <c r="P4" s="140"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="151">
+        <v>0</v>
+      </c>
+      <c r="N4" s="152"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="162"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1816,7 +1816,7 @@
       <c r="O5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="140"/>
+      <c r="P5" s="162"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -1836,7 +1836,7 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="140"/>
+      <c r="P6" s="162"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -1856,7 +1856,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="140"/>
+      <c r="P7" s="162"/>
       <c r="Q7" s="39"/>
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
@@ -1921,7 +1921,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="140"/>
+      <c r="P8" s="162"/>
       <c r="Q8" s="41"/>
       <c r="R8" s="41"/>
       <c r="S8" s="41"/>
@@ -1942,36 +1942,36 @@
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="155">
+      <c r="B9" s="154">
         <f>SUM(B8:B8)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="155">
+      <c r="C9" s="156"/>
+      <c r="D9" s="154">
         <f>SUM(D8:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="155">
+      <c r="E9" s="155"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="154">
         <f>SUM(G8:H8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="155">
+      <c r="H9" s="155"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="154">
         <f>SUM(J8:K8)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="156"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="155">
+      <c r="K9" s="155"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="154">
         <f>SUM(M8:O8)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="156"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="140"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="162"/>
       <c r="Q9" s="42"/>
       <c r="R9" s="42"/>
       <c r="S9" s="42"/>
@@ -1992,24 +1992,24 @@
       <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="155">
+      <c r="B10" s="154">
         <f>B9+D9+G9+J9+M9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="157"/>
-      <c r="P10" s="140"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="162"/>
       <c r="Q10" s="42"/>
       <c r="R10" s="43"/>
       <c r="S10" s="66"/>
@@ -2064,7 +2064,7 @@
       <c r="O11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="140"/>
+      <c r="P11" s="162"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="45"/>
       <c r="S11" s="45"/>
@@ -2119,7 +2119,7 @@
       <c r="O12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="140"/>
+      <c r="P12" s="162"/>
       <c r="Q12" s="46"/>
       <c r="R12" s="47"/>
       <c r="S12" s="47"/>
@@ -2140,31 +2140,31 @@
       <c r="A13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="158">
+      <c r="B13" s="177">
         <v>0.11767702496179318</v>
       </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="160">
+      <c r="C13" s="178"/>
+      <c r="D13" s="179">
         <v>0.35455934793683136</v>
       </c>
-      <c r="E13" s="161"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="163">
+      <c r="E13" s="180"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="182">
         <v>0.39174732552215996</v>
       </c>
-      <c r="H13" s="164"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="166">
+      <c r="H13" s="183"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="185">
         <v>0.13601630157921549</v>
       </c>
-      <c r="K13" s="167"/>
-      <c r="L13" s="168"/>
-      <c r="M13" s="169">
-        <v>0</v>
-      </c>
-      <c r="N13" s="170"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="140"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="188">
+        <v>0</v>
+      </c>
+      <c r="N13" s="189"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="162"/>
       <c r="Q13" s="46"/>
       <c r="R13" s="48"/>
       <c r="S13" s="48"/>
@@ -2246,35 +2246,35 @@
       <c r="A19" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="141">
+      <c r="B19" s="163">
         <v>1</v>
       </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="143">
+      <c r="C19" s="164"/>
+      <c r="D19" s="165">
         <v>2</v>
       </c>
-      <c r="E19" s="144"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="146">
+      <c r="E19" s="166"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="168">
         <v>3</v>
       </c>
-      <c r="H19" s="147"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="149">
+      <c r="H19" s="169"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="171">
         <v>4</v>
       </c>
-      <c r="K19" s="150"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="152">
+      <c r="K19" s="172"/>
+      <c r="L19" s="173"/>
+      <c r="M19" s="174">
         <v>5</v>
       </c>
-      <c r="N19" s="153"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="137">
+      <c r="N19" s="175"/>
+      <c r="O19" s="176"/>
+      <c r="P19" s="159">
         <v>6</v>
       </c>
-      <c r="Q19" s="138"/>
-      <c r="R19" s="139"/>
+      <c r="Q19" s="160"/>
+      <c r="R19" s="161"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
@@ -3012,20 +3012,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
     <mergeCell ref="P19:R19"/>
     <mergeCell ref="P1:P13"/>
     <mergeCell ref="B19:C19"/>
@@ -3042,6 +3028,20 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3051,7 +3051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7C6D0F-B07F-4FD9-A9DC-D5E450850476}">
   <dimension ref="A2:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
@@ -3232,71 +3232,71 @@
         <v>6</v>
       </c>
       <c r="B8" s="55">
-        <f>SUM(B26:B29)</f>
+        <f t="shared" ref="B8:R8" si="0">SUM(B26:B29)</f>
         <v>0</v>
       </c>
       <c r="C8" s="55">
-        <f>SUM(C26:C29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8" s="55">
-        <f>SUM(D26:D29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="55">
-        <f>SUM(E26:E29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="55">
-        <f>SUM(F26:F29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="55">
-        <f>SUM(G26:G29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="55">
-        <f>SUM(H26:H29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="55">
-        <f>SUM(I26:I29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="55">
-        <f>SUM(J26:J29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="55">
-        <f>SUM(K26:K29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="55">
-        <f>SUM(L26:L29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="55">
-        <f>SUM(M26:M29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N8" s="55">
-        <f>SUM(N26:N29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O8" s="56">
-        <f>SUM(O26:O29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P8" s="55">
-        <f>SUM(P26:P29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q8" s="55">
-        <f>SUM(Q26:Q29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R8" s="56">
-        <f>SUM(R26:R29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
